--- a/documentation/PRIME Test Cases and Results.xlsx
+++ b/documentation/PRIME Test Cases and Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttdatagroup.sharepoint.com/teams/srvs-ssg-dlvry-agiledevops/Shared Documents/SprintWithUs PRIME - 10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177196\Documents\DEV Projects\PRIME\optimize-prime\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="11_400BC77E507BB31E3C26908331378DB42C7306A7" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{1302AFA0-5E89-43A7-82B5-9E21AFE027C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E5FBE-B5AF-413A-91D5-54D051ED51ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,9 +417,6 @@
     <t>No run</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>COMPLETE - Aug 30 @ 2:02PM</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>PASS - Google authentication popup prevents moving forward</t>
+  </si>
+  <si>
+    <t>PASS - Main page displayed</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1069,10 +1069,10 @@
         <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1096,10 +1096,10 @@
         <v>85</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -1126,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -1743,21 +1743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A155F2F546B264BB17A491AE46F1CAA" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb2b5aa130faf83ef403f3e6bbf6643f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb92b8b-105f-4ea2-ab55-5436951cce39" xmlns:ns3="ecbaea38-706c-4d1e-9382-6b23c8d7adec" xmlns:ns4="f8e25dd8-6c79-40a0-9941-4bd90aad1279" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef4815af1ad7438eca3c7fa85554bdb5" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="8fb92b8b-105f-4ea2-ab55-5436951cce39"/>
@@ -1965,10 +1950,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D52FBC8-991E-4BAF-B975-45B97D457EEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{392456D1-1300-43A3-A468-7B113920A10C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb92b8b-105f-4ea2-ab55-5436951cce39"/>
+    <ds:schemaRef ds:uri="ecbaea38-706c-4d1e-9382-6b23c8d7adec"/>
+    <ds:schemaRef ds:uri="f8e25dd8-6c79-40a0-9941-4bd90aad1279"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1992,21 +2004,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{392456D1-1300-43A3-A468-7B113920A10C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D52FBC8-991E-4BAF-B975-45B97D457EEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb92b8b-105f-4ea2-ab55-5436951cce39"/>
-    <ds:schemaRef ds:uri="ecbaea38-706c-4d1e-9382-6b23c8d7adec"/>
-    <ds:schemaRef ds:uri="f8e25dd8-6c79-40a0-9941-4bd90aad1279"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/PRIME Test Cases and Results.xlsx
+++ b/documentation/PRIME Test Cases and Results.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177196\Documents\DEV Projects\PRIME\optimize-prime\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E5FBE-B5AF-413A-91D5-54D051ED51ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887133D8-0524-4404-8413-A1A42B126FA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="148">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -39,9 +34,6 @@
     <t>User Story</t>
   </si>
   <si>
-    <t>Test Status</t>
-  </si>
-  <si>
     <t>Test ID</t>
   </si>
   <si>
@@ -156,18 +148,12 @@
     <t>US-01-4</t>
   </si>
   <si>
-    <t>Successful login - Admin authentication</t>
-  </si>
-  <si>
     <t>US-04-1</t>
   </si>
   <si>
     <t>US-04-2</t>
   </si>
   <si>
-    <t>US-04-3</t>
-  </si>
-  <si>
     <t>Access to app is granted, main applicant screen is displayed</t>
   </si>
   <si>
@@ -294,21 +280,12 @@
     <t>User cannot access admin screens (NOTE: There is no authentication for admin access)</t>
   </si>
   <si>
-    <t>Admin access</t>
-  </si>
-  <si>
     <t>Launch app (http://www.optimizeprime.live), enter valid applicant credentials, log out of the app</t>
   </si>
   <si>
     <t>Launch app (http://www.optimizeprime.live), enter valid applicant credentials, attempt to access admin screen (via admin URL)</t>
   </si>
   <si>
-    <t>Launch admin app, enter valid admin credentials</t>
-  </si>
-  <si>
-    <t>Access to app is granted, main admin screen is displayed (NOTE: Currently admin does not require credentials)</t>
-  </si>
-  <si>
     <t>Launch admin app (http://www.optimizeprime.live/dashboard/admin)</t>
   </si>
   <si>
@@ -417,6 +394,9 @@
     <t>No run</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>COMPLETE - Aug 30 @ 2:02PM</t>
   </si>
   <si>
@@ -430,6 +410,63 @@
   </si>
   <si>
     <t>PASS - Main page displayed</t>
+  </si>
+  <si>
+    <t>NOTE: You cannot actually submit an application without authenticating</t>
+  </si>
+  <si>
+    <t>FAIL - 3 digits was accepted</t>
+  </si>
+  <si>
+    <t>FAIL - 5 digits was accepted</t>
+  </si>
+  <si>
+    <t>PASS - Cannot enter non-numeric</t>
+  </si>
+  <si>
+    <t>COMPLETE - Aug 30 @ 2:43PM</t>
+  </si>
+  <si>
+    <t>NOT APPLICABLE - No additional details can be entered incorrectly</t>
+  </si>
+  <si>
+    <t>NOT APPLICABLE - No ability to cancel application (just don't click Submit)</t>
+  </si>
+  <si>
+    <t>Latest Test Status</t>
+  </si>
+  <si>
+    <t>PASS - Status shows "Pending"</t>
+  </si>
+  <si>
+    <t>COMPLETE - Aug 30 @ 2:48PM</t>
+  </si>
+  <si>
+    <t>Potential change - hide approved, not sort but status</t>
+  </si>
+  <si>
+    <t>US-05-2</t>
+  </si>
+  <si>
+    <t>Admin access - incorrect URL</t>
+  </si>
+  <si>
+    <t>Launch incorrect URL to attempt to access admin app (http://www.optimizeprime.live/admin)</t>
+  </si>
+  <si>
+    <t>Error 404 page is displayed, admin screens cannot be accessed</t>
+  </si>
+  <si>
+    <t>Admin access - correct URL</t>
+  </si>
+  <si>
+    <t>PASS - Approved shown at bottom of list based on status sort</t>
+  </si>
+  <si>
+    <t>PASS - Pending shown at top of list based on status sort</t>
+  </si>
+  <si>
+    <t>NOT APPLICABLE - No details page for the application needed</t>
   </si>
 </sst>
 </file>
@@ -667,7 +704,7 @@
     <tableColumn id="9" xr3:uid="{9FFEB5CF-97F5-4C86-9149-4B3CDEC35E92}" name="Test Steps" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{48BC94B3-074B-4738-AFE1-2016A1444A36}" name="Expected Result" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{BB138C61-B3FC-4484-9730-1E0C7A9F3901}" name="Actual Result" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3BF45151-D899-4DA0-9762-60D42ABC7AD2}" name="Test Status" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3BF45151-D899-4DA0-9762-60D42ABC7AD2}" name="Latest Test Status" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{A408692A-1B12-49AD-AEA3-11F3CEA87470}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -973,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,10 +1031,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1006,16 +1043,16 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -1024,365 +1061,387 @@
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H6" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -1391,344 +1450,358 @@
         <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H16" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H18" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="H19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="H20" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H21" s="3" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I29" s="3"/>
     </row>
@@ -1740,273 +1813,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A155F2F546B264BB17A491AE46F1CAA" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb2b5aa130faf83ef403f3e6bbf6643f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb92b8b-105f-4ea2-ab55-5436951cce39" xmlns:ns3="ecbaea38-706c-4d1e-9382-6b23c8d7adec" xmlns:ns4="f8e25dd8-6c79-40a0-9941-4bd90aad1279" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef4815af1ad7438eca3c7fa85554bdb5" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="8fb92b8b-105f-4ea2-ab55-5436951cce39"/>
-    <xsd:import namespace="ecbaea38-706c-4d1e-9382-6b23c8d7adec"/>
-    <xsd:import namespace="f8e25dd8-6c79-40a0-9941-4bd90aad1279"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8fb92b8b-105f-4ea2-ab55-5436951cce39" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ecbaea38-706c-4d1e-9382-6b23c8d7adec" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f8e25dd8-6c79-40a0-9941-4bd90aad1279" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{392456D1-1300-43A3-A468-7B113920A10C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb92b8b-105f-4ea2-ab55-5436951cce39"/>
-    <ds:schemaRef ds:uri="ecbaea38-706c-4d1e-9382-6b23c8d7adec"/>
-    <ds:schemaRef ds:uri="f8e25dd8-6c79-40a0-9941-4bd90aad1279"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF2C7F1-7609-4DF5-85E7-26117B9CEEA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ecbaea38-706c-4d1e-9382-6b23c8d7adec"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f8e25dd8-6c79-40a0-9941-4bd90aad1279"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8fb92b8b-105f-4ea2-ab55-5436951cce39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D52FBC8-991E-4BAF-B975-45B97D457EEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/PRIME Test Cases and Results.xlsx
+++ b/documentation/PRIME Test Cases and Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887133D8-0524-4404-8413-A1A42B126FA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3ED5DB-9A46-443E-981F-2CEDA46B2256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="148">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Review a not approved application</t>
   </si>
   <si>
-    <t>No run</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>NOT APPLICABLE - No details page for the application needed</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1052,7 @@
         <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -1079,10 +1079,10 @@
         <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1106,10 +1106,10 @@
         <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1133,13 +1133,13 @@
         <v>82</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1165,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -1189,10 +1189,10 @@
         <v>57</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -1216,10 +1216,10 @@
         <v>58</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -1243,10 +1243,10 @@
         <v>63</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -1270,10 +1270,10 @@
         <v>63</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -1297,10 +1297,10 @@
         <v>63</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -1324,10 +1324,10 @@
         <v>79</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -1354,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -1405,10 +1405,10 @@
         <v>45</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -1432,10 +1432,10 @@
         <v>50</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -1450,7 +1450,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>87</v>
@@ -1459,16 +1459,16 @@
         <v>88</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -1477,19 +1477,19 @@
         <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1513,10 +1513,10 @@
         <v>93</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -1540,13 +1540,13 @@
         <v>97</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1569,10 +1569,10 @@
         <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -1599,7 +1599,7 @@
         <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -1622,9 +1622,11 @@
       <c r="F22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H22" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
@@ -1648,9 +1650,11 @@
       <c r="F23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H23" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
@@ -1674,9 +1678,11 @@
       <c r="F24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H24" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -1699,9 +1705,11 @@
       <c r="F25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H25" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -1724,9 +1732,11 @@
       <c r="F26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H26" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -1749,9 +1759,11 @@
       <c r="F27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H27" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -1774,9 +1786,11 @@
       <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H28" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I28" s="3"/>
     </row>
@@ -1799,9 +1813,11 @@
       <c r="F29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H29" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I29" s="3"/>
     </row>
